--- a/Research/Results/Evaluation-final.xlsx
+++ b/Research/Results/Evaluation-final.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osins\Desktop\R&amp;D\R&amp;D Project\lm-evaluation-harness\R+D\research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osins\Desktop\AMU-Master-Thesis-Project\Research\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A686E5-AED4-4774-AECE-FD7322DF4D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F18C14-0194-414C-86D0-781F5424A3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{76F17BED-C1F5-429D-A3BE-DE652BCF7AB9}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14880" windowHeight="15585" activeTab="2" xr2:uid="{76F17BED-C1F5-429D-A3BE-DE652BCF7AB9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="11" r:id="rId1"/>
-    <sheet name="MODELE" sheetId="12" r:id="rId2"/>
+    <sheet name="Korpusy" sheetId="11" r:id="rId1"/>
+    <sheet name="Kanban" sheetId="14" r:id="rId2"/>
+    <sheet name="MODELE" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
-  <si>
-    <t>1.ARC</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="117">
   <si>
     <t>2. HEAD_QA_EN</t>
   </si>
@@ -289,12 +287,6 @@
     <t>14. arithmetic (context jako key)</t>
   </si>
   <si>
-    <t>https://arxiv.org/html/2501.02266v1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/amu-cai/LLMZSZL_Leaderboard</t>
-  </si>
-  <si>
     <t>10. agieval_en</t>
   </si>
   <si>
@@ -313,12 +305,6 @@
     <t>20. klej-dyk </t>
   </si>
   <si>
-    <t>Usunąć dane pochodzące z taska BBH-ogólnego / cot / few_shots</t>
-  </si>
-  <si>
-    <t>Zmienić ilość skontaminowanych danych z taska groudcocoa (podzielić przez 3 i odjąc 2/3)</t>
-  </si>
-  <si>
     <t>21. llmzszl</t>
   </si>
   <si>
@@ -332,13 +318,85 @@
   </si>
   <si>
     <t>18. polemo2</t>
+  </si>
+  <si>
+    <t>Zbieranie danych</t>
+  </si>
+  <si>
+    <t>MARZEC</t>
+  </si>
+  <si>
+    <t>KWIECIEŃ</t>
+  </si>
+  <si>
+    <t>MAJ</t>
+  </si>
+  <si>
+    <t>CZERWIEC</t>
+  </si>
+  <si>
+    <t>LIPIEC</t>
+  </si>
+  <si>
+    <t>Analiza danych</t>
+  </si>
+  <si>
+    <t>Rozdział Praktyczny</t>
+  </si>
+  <si>
+    <t>Rozdział teoretyczny</t>
+  </si>
+  <si>
+    <t>Obrona</t>
+  </si>
+  <si>
+    <t>Testy zwiazane z budową prompta</t>
+  </si>
+  <si>
+    <t>Wybór najblepszego prompta</t>
+  </si>
+  <si>
+    <t>Przetestowanie wszytskich datasetów z wybranym promptem</t>
+  </si>
+  <si>
+    <t>Agregacha danych</t>
+  </si>
+  <si>
+    <t>Przeniesienie danych na GitHuba/HF</t>
+  </si>
+  <si>
+    <t>Stworzenie skryptu przetwarzającego pliki xai.json</t>
+  </si>
+  <si>
+    <t>agregacja ciekawych informacji z plików xai.json</t>
+  </si>
+  <si>
+    <t>Wyprowadzenenie wniosków/teorii/spostrzeżeń/pomysłów</t>
+  </si>
+  <si>
+    <t>Ukazanie danych w atrakcyjny sposób excel/powerBI/SQL</t>
+  </si>
+  <si>
+    <t>1. ARC</t>
+  </si>
+  <si>
+    <t>Powtórzyć badanie dla korpusów</t>
+  </si>
+  <si>
+    <t>multiple_choice</t>
+  </si>
+  <si>
+    <t>generate_until</t>
+  </si>
+  <si>
+    <t>loglikelihood</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,8 +422,24 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,8 +452,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -402,18 +506,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -431,6 +694,235 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Łącznik prosty ze strzałką 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4D19E0-2502-41AD-AAF5-04A3D3AC7244}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10401300" y="381000"/>
+          <a:ext cx="600075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Łącznik prosty ze strzałką 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BD5C771-4EB4-4C53-B9F0-6D0EEBE8D721}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12839700" y="381000"/>
+          <a:ext cx="600075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Łącznik prosty ze strzałką 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A33E815E-1380-43EA-B46C-A649B0ECFBAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15278100" y="381000"/>
+          <a:ext cx="600075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Łącznik prosty ze strzałką 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A75ED0E-2373-4C63-B842-B7E9CF419BC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505450" y="381000"/>
+          <a:ext cx="600075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -753,8 +1245,8 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,154 +1254,378 @@
     <col min="1" max="1" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>83</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1" xr:uid="{852D20EE-E64C-4D0A-B59C-A3CF5B984A81}"/>
-    <hyperlink ref="B22" r:id="rId2" xr:uid="{FE0627D7-D9FC-4776-BA53-0380FAE75ACF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B06AD5-EC2C-4F9C-8FC2-6A6F6A215E63}">
+  <dimension ref="A1:W9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="55.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="7"/>
+    <col min="5" max="5" width="9.140625" style="5"/>
+    <col min="6" max="6" width="46" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="9.140625" style="5"/>
+    <col min="10" max="10" width="9.140625" style="6"/>
+    <col min="12" max="12" width="9.140625" style="7"/>
+    <col min="13" max="13" width="9.140625" style="5"/>
+    <col min="14" max="14" width="9.140625" style="6"/>
+    <col min="16" max="16" width="9.140625" style="7"/>
+    <col min="17" max="17" width="9.140625" style="5"/>
+    <col min="18" max="18" width="9.140625" style="6"/>
+    <col min="20" max="20" width="9.140625" style="7"/>
+    <col min="21" max="23" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="F2" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="J2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
+      <c r="N2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="12"/>
+      <c r="R2" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="17"/>
+      <c r="T2" s="18"/>
+    </row>
+    <row r="3" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="F3" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="J3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="15"/>
+      <c r="N3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="15"/>
+      <c r="R3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="S3" s="20"/>
+      <c r="T3" s="21"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D51035-68ED-4969-8FD9-8F94A19C9D32}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,340 +1635,340 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1266,6 +1982,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7adeddb8-0c6e-4b6e-8475-37b16e991332" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1274,7 +1998,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C76B75E76FBA8D43BC6655755334F736" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="dce19c37d23f49fdcb9dd2a67bb20b41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7adeddb8-0c6e-4b6e-8475-37b16e991332" xmlns:ns4="dbfdd765-989a-4dbb-b48c-5d457b2b54fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1d6f19661910fe906d3ed9295f1fb38" ns3:_="" ns4:_="">
     <xsd:import namespace="7adeddb8-0c6e-4b6e-8475-37b16e991332"/>
@@ -1513,15 +2237,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7adeddb8-0c6e-4b6e-8475-37b16e991332" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CAB37DF-1581-4043-BBD0-6A2AB557371E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="7adeddb8-0c6e-4b6e-8475-37b16e991332"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="dbfdd765-989a-4dbb-b48c-5d457b2b54fe"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{536A6EEC-738D-47C0-9CC8-1D182594CF5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1529,7 +2262,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15EB0E1A-CFDC-4726-9F2B-00597A4C96B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1546,21 +2279,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CAB37DF-1581-4043-BBD0-6A2AB557371E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="7adeddb8-0c6e-4b6e-8475-37b16e991332"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="dbfdd765-989a-4dbb-b48c-5d457b2b54fe"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>